--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BA954B-CC0E-4B94-85C1-6AF94E8072C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7579369-1A3E-4CF5-B8FF-A11007767F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="2" r:id="rId1"/>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9C196F-4F00-40D9-AF4A-152034752A4E}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -859,7 +859,7 @@
     <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>4</v>

--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7579369-1A3E-4CF5-B8FF-A11007767F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A1BB10-64D0-4ED9-A241-0AA75CAE2741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
+    <workbookView xWindow="-23250" yWindow="2295" windowWidth="22680" windowHeight="11295" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="2" r:id="rId1"/>
@@ -39,16 +39,34 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={57AD5687-7B8B-4625-A3B0-5F782D768560}</author>
     <author>tc={748F45B8-127D-4CEE-AAF3-B56F9D0BE9C4}</author>
+    <author>tc={DE64BE36-52A2-42C4-B6E5-5FFFCED0BB9C}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{748F45B8-127D-4CEE-AAF3-B56F9D0BE9C4}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{57AD5687-7B8B-4625-A3B0-5F782D768560}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Map_Index</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{748F45B8-127D-4CEE-AAF3-B56F9D0BE9C4}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     맵 테마
 1 = 로스트 템플</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="2" shapeId="0" xr:uid="{DE64BE36-52A2-42C4-B6E5-5FFFCED0BB9C}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    배경 이미지</t>
       </text>
     </comment>
   </commentList>
@@ -58,6 +76,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={05C22C8D-0641-4834-B195-30E75682861E}</author>
     <author>tc={65835DFF-36EB-47A3-9FA0-B17612F66850}</author>
     <author>tc={30FFA4B3-8EA4-4DFB-85E8-20C0D6187F51}</author>
     <author>tc={3E246EF8-D972-4088-9E39-D54C8C80D42B}</author>
@@ -75,7 +94,15 @@
     <author>tc={CDD8B994-D1E0-41CC-B476-251D2CD05D62}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{65835DFF-36EB-47A3-9FA0-B17612F66850}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{05C22C8D-0641-4834-B195-30E75682861E}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Map_Index</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{65835DFF-36EB-47A3-9FA0-B17612F66850}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -84,7 +111,7 @@
 1 =존재 함</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{30FFA4B3-8EA4-4DFB-85E8-20C0D6187F51}">
+    <comment ref="F1" authorId="2" shapeId="0" xr:uid="{30FFA4B3-8EA4-4DFB-85E8-20C0D6187F51}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -93,7 +120,7 @@
 1 =존재 함</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{3E246EF8-D972-4088-9E39-D54C8C80D42B}">
+    <comment ref="G1" authorId="3" shapeId="0" xr:uid="{3E246EF8-D972-4088-9E39-D54C8C80D42B}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -102,7 +129,7 @@
 1 =존재 함</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="3" shapeId="0" xr:uid="{66AE34F1-C17B-4C60-A41E-FEE2D58FCAB4}">
+    <comment ref="H1" authorId="4" shapeId="0" xr:uid="{66AE34F1-C17B-4C60-A41E-FEE2D58FCAB4}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -110,7 +137,7 @@
     빨간 팀 동상 X축 위치</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{466D5994-6F89-444A-A93B-6DF51536ED98}">
+    <comment ref="I1" authorId="5" shapeId="0" xr:uid="{466D5994-6F89-444A-A93B-6DF51536ED98}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -118,7 +145,7 @@
     빨간 팀 동상 X축 위치</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{32FAC2CB-A704-41CF-AA81-58B1D1AA39C4}">
+    <comment ref="J1" authorId="6" shapeId="0" xr:uid="{32FAC2CB-A704-41CF-AA81-58B1D1AA39C4}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -126,7 +153,7 @@
     빨간 팀 동상 Z축 위치</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="6" shapeId="0" xr:uid="{DD144731-914B-4536-BF05-1EA8F5999F67}">
+    <comment ref="K1" authorId="7" shapeId="0" xr:uid="{DD144731-914B-4536-BF05-1EA8F5999F67}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -134,7 +161,7 @@
     파랑 팀 동상 X축 위치</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="7" shapeId="0" xr:uid="{7BF5AE77-0468-4C54-8DE8-5CB234E2B734}">
+    <comment ref="L1" authorId="8" shapeId="0" xr:uid="{7BF5AE77-0468-4C54-8DE8-5CB234E2B734}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -142,7 +169,7 @@
     파랑 팀 동상 X축 위치</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="8" shapeId="0" xr:uid="{FE172FF6-599A-47EC-805A-FB837BE37942}">
+    <comment ref="M1" authorId="9" shapeId="0" xr:uid="{FE172FF6-599A-47EC-805A-FB837BE37942}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -150,7 +177,7 @@
     파랑 팀 동상 Z축 위치</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="9" shapeId="0" xr:uid="{0C310D98-69DC-45ED-BF41-061178648394}">
+    <comment ref="N1" authorId="10" shapeId="0" xr:uid="{0C310D98-69DC-45ED-BF41-061178648394}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -158,7 +185,7 @@
     초록 팀 동상 X축 위치</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="10" shapeId="0" xr:uid="{D774CC93-5EEE-4E56-B3AB-A8BC38F43962}">
+    <comment ref="O1" authorId="11" shapeId="0" xr:uid="{D774CC93-5EEE-4E56-B3AB-A8BC38F43962}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -166,7 +193,7 @@
     초록 팀 동상 X축 위치</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="11" shapeId="0" xr:uid="{CEFCB79A-8D49-41AC-BA14-984BD2C19FA1}">
+    <comment ref="P1" authorId="12" shapeId="0" xr:uid="{CEFCB79A-8D49-41AC-BA14-984BD2C19FA1}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -174,7 +201,7 @@
     초록 팀 동상 Z축 위치</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="12" shapeId="0" xr:uid="{77E5867A-E448-4EE2-90F4-36A9C52476BE}">
+    <comment ref="Q1" authorId="13" shapeId="0" xr:uid="{77E5867A-E448-4EE2-90F4-36A9C52476BE}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -182,7 +209,7 @@
     빨간 팀 동상 보는 방향</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="13" shapeId="0" xr:uid="{4BEFB559-C011-4F9C-97B1-ACF429BA739C}">
+    <comment ref="R1" authorId="14" shapeId="0" xr:uid="{4BEFB559-C011-4F9C-97B1-ACF429BA739C}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -190,7 +217,7 @@
     파란 팀 동상 보는 방향</t>
       </text>
     </comment>
-    <comment ref="S1" authorId="14" shapeId="0" xr:uid="{CDD8B994-D1E0-41CC-B476-251D2CD05D62}">
+    <comment ref="S1" authorId="15" shapeId="0" xr:uid="{CDD8B994-D1E0-41CC-B476-251D2CD05D62}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -203,11 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Map_Index </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>Mode_index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +305,50 @@
   </si>
   <si>
     <t>Statue_Team_Green_LocationY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode_Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimap_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 기지에 폭탄을 투입하여 고양이 동상을 파괴하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire in the Hole(개인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire in the Hole(팀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(경로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Index </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +380,20 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -343,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,6 +432,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -373,6 +457,8 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="경천 강" id="{608B51D2-53CE-4CD6-9961-3C1AB9B25278}" userId="9a4f2fb646cdd437" providerId="Windows Live"/>
+  <person displayName="창민 이" id="{FBE371C0-7B62-4551-8FD9-0E38732A222E}" userId="fda0e400ac064334" providerId="Windows Live"/>
+  <person displayName="김혁동(2017180008)" id="{DCB1BB81-03F6-4103-99CB-0E7ABDBAD1AD}" userId="S::rlagurehd789@tukorea.ac.kr::6d47fe4a-2d29-4a52-95b5-d6b5a73437b8" providerId="AD"/>
 </personList>
 </file>
 
@@ -693,15 +779,24 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2024-12-10T07:08:59.66" personId="{DCB1BB81-03F6-4103-99CB-0E7ABDBAD1AD}" id="{57AD5687-7B8B-4625-A3B0-5F782D768560}">
+    <text>Map_Index</text>
+  </threadedComment>
   <threadedComment ref="B1" dT="2024-11-21T12:55:44.35" personId="{608B51D2-53CE-4CD6-9961-3C1AB9B25278}" id="{748F45B8-127D-4CEE-AAF3-B56F9D0BE9C4}">
     <text>맵 테마
 1 = 로스트 템플</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-11-28T06:19:50.88" personId="{FBE371C0-7B62-4551-8FD9-0E38732A222E}" id="{DE64BE36-52A2-42C4-B6E5-5FFFCED0BB9C}">
+    <text>배경 이미지</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2024-12-10T07:09:09.94" personId="{DCB1BB81-03F6-4103-99CB-0E7ABDBAD1AD}" id="{05C22C8D-0641-4834-B195-30E75682861E}">
+    <text>Map_Index</text>
+  </threadedComment>
   <threadedComment ref="E1" dT="2024-11-21T18:43:22.95" personId="{608B51D2-53CE-4CD6-9961-3C1AB9B25278}" id="{65835DFF-36EB-47A3-9FA0-B17612F66850}">
     <text>0 = 존재 하지 않음
 1 =존재 함</text>
@@ -755,88 +850,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD150FCE-FCFA-4355-A28A-43000EE0969C}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>11101</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>12201</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12202</v>
       </c>
       <c r="B9">
         <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -850,90 +1085,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9C196F-4F00-40D9-AF4A-152034752A4E}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.08203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="27.58203125" customWidth="1"/>
-    <col min="14" max="14" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="29.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="27.625" customWidth="1"/>
+    <col min="14" max="14" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="29.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>11101</v>
       </c>
@@ -992,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
@@ -1051,7 +1286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
@@ -1089,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1110,7 +1345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
@@ -1169,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
@@ -1222,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
@@ -1287,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>12201</v>
       </c>
@@ -1346,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12202</v>
       </c>

--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A1BB10-64D0-4ED9-A241-0AA75CAE2741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8922CA20-88DB-419D-9E0E-EA0C0E33DB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23250" yWindow="2295" windowWidth="22680" windowHeight="11295" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
+    <workbookView xWindow="-26355" yWindow="2820" windowWidth="22680" windowHeight="11295" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="2" r:id="rId1"/>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Statue_Team_Red_LocationX </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Statue_Team_Red_LocationZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,26 +276,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Statue_Team_Blue_LocationX </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Statue_Team_Blue_LocationZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Statue_Team_Green_LocationX </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Statue_Team_Green_LocationZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Statue_Team_Red_LocationY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Statue_Team_Blue_LocationY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,7 +332,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Index </t>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statue_Team_Red_LocationX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statue_Team_Red_LocationY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statue_Team_Blue_LocationX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statue_Team_Green_LocationX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,12 +388,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -853,7 +847,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -869,25 +863,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -898,19 +892,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -921,19 +915,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -944,19 +938,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -967,19 +961,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -990,19 +984,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1013,19 +1007,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1036,19 +1030,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1059,19 +1053,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1080,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1105,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1132,40 +1126,40 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">

--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8922CA20-88DB-419D-9E0E-EA0C0E33DB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F9F95D-4272-443A-8A18-9A0AD7E9332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26355" yWindow="2820" windowWidth="22680" windowHeight="11295" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,8 @@
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     맵 테마
-1 = 로스트 템플</t>
+1 = 낮 로스트 템플
+2 = 밤 로스트 템플</t>
       </text>
     </comment>
     <comment ref="F1" authorId="2" shapeId="0" xr:uid="{DE64BE36-52A2-42C4-B6E5-5FFFCED0BB9C}">
@@ -230,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
   <si>
     <t>Mode_index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,7 +779,8 @@
   </threadedComment>
   <threadedComment ref="B1" dT="2024-11-21T12:55:44.35" personId="{608B51D2-53CE-4CD6-9961-3C1AB9B25278}" id="{748F45B8-127D-4CEE-AAF3-B56F9D0BE9C4}">
     <text>맵 테마
-1 = 로스트 템플</text>
+1 = 낮 로스트 템플
+2 = 밤 로스트 템플</text>
   </threadedComment>
   <threadedComment ref="F1" dT="2024-11-28T06:19:50.88" personId="{FBE371C0-7B62-4551-8FD9-0E38732A222E}" id="{DE64BE36-52A2-42C4-B6E5-5FFFCED0BB9C}">
     <text>배경 이미지</text>
@@ -844,24 +846,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD150FCE-FCFA-4355-A28A-43000EE0969C}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -884,7 +886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>11101</v>
       </c>
@@ -907,7 +909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
@@ -930,7 +932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
@@ -953,7 +955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
@@ -976,7 +978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>12201</v>
       </c>
@@ -1045,7 +1047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>12202</v>
       </c>
@@ -1065,6 +1067,190 @@
         <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>11101</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>11102</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>11103</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>11201</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>12101</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>12102</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>12201</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>12202</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1079,31 +1265,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9C196F-4F00-40D9-AF4A-152034752A4E}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="27.625" customWidth="1"/>
-    <col min="14" max="14" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="27.58203125" customWidth="1"/>
+    <col min="14" max="14" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="29.08203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1162,7 +1348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>11101</v>
       </c>
@@ -1221,7 +1407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
@@ -1280,7 +1466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
@@ -1339,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
@@ -1398,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
@@ -1457,7 +1643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
@@ -1516,7 +1702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>12201</v>
       </c>
@@ -1575,7 +1761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>12202</v>
       </c>

--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F9F95D-4272-443A-8A18-9A0AD7E9332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1034E67-9786-4BBA-9158-70021FC26669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="2" r:id="rId1"/>
@@ -848,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD150FCE-FCFA-4355-A28A-43000EE0969C}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1263,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9C196F-4F00-40D9-AF4A-152034752A4E}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1648,13 +1648,13 @@
         <v>12102</v>
       </c>
       <c r="B7" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1669,19 +1669,19 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>42.2</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1704,16 +1704,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>12201</v>
+        <v>12202</v>
       </c>
       <c r="B8" s="2">
         <v>122</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>42.2</v>
+        <v>46.2</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1758,65 +1758,6 @@
         <v>3</v>
       </c>
       <c r="S8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>12202</v>
-      </c>
-      <c r="B9" s="2">
-        <v>122</v>
-      </c>
-      <c r="C9">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <v>46.2</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
         <v>4</v>
       </c>
     </row>

--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1034E67-9786-4BBA-9158-70021FC26669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B467B9-6C3F-4F04-B9B1-49F48581C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="2" r:id="rId1"/>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1533,10 +1533,10 @@
         <v>112</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1545,43 +1545,43 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>30.2</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>-2.2000000000000002</v>
+        <v>-2</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N5">
-        <v>46.2</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
@@ -1589,7 +1589,7 @@
         <v>12101</v>
       </c>
       <c r="B6" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>26</v>

--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B467B9-6C3F-4F04-B9B1-49F48581C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D334535-3535-4BB3-AA57-0D7276BD830E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="2" r:id="rId1"/>
@@ -852,18 +852,18 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>11101</v>
       </c>
@@ -909,7 +909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
@@ -932,7 +932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
@@ -955,7 +955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
@@ -978,7 +978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>12201</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12202</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>11101</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11102</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11103</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11201</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12101</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12102</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>12201</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>12202</v>
       </c>
@@ -1263,33 +1263,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9C196F-4F00-40D9-AF4A-152034752A4E}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.08203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="27.58203125" customWidth="1"/>
-    <col min="14" max="14" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="29.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="27.625" customWidth="1"/>
+    <col min="14" max="14" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="29.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>11101</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>12202</v>
       </c>
@@ -1758,6 +1758,124 @@
         <v>3</v>
       </c>
       <c r="S8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>12102</v>
+      </c>
+      <c r="B9" s="2">
+        <v>121</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>42.2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>12202</v>
+      </c>
+      <c r="B10" s="2">
+        <v>121</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>46.2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
         <v>4</v>
       </c>
     </row>

--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D334535-3535-4BB3-AA57-0D7276BD830E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0C6973-75BF-4511-B547-3ACAED9B85CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="2" r:id="rId1"/>
@@ -852,18 +852,18 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>11101</v>
       </c>
@@ -909,7 +909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
@@ -932,7 +932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
@@ -955,7 +955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
@@ -978,7 +978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>12201</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>12202</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>11101</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>11102</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11103</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>11201</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>12101</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>12102</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>12201</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>12202</v>
       </c>
@@ -1266,30 +1266,30 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="27.625" customWidth="1"/>
-    <col min="14" max="14" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="27.58203125" customWidth="1"/>
+    <col min="14" max="14" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="29.08203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>11101</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
@@ -1533,10 +1533,10 @@
         <v>112</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1545,51 +1545,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
+        <v>30.2</v>
+      </c>
+      <c r="K5">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>46.2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="K5">
-        <v>-2</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>13</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
       <c r="B6" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>26</v>
@@ -1643,18 +1643,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
       <c r="B7" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1669,19 +1669,19 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>42.2</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1702,18 +1702,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>12202</v>
+        <v>12201</v>
       </c>
       <c r="B8" s="2">
         <v>122</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>46.2</v>
+        <v>42.2</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1761,18 +1761,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>12102</v>
+        <v>12202</v>
       </c>
       <c r="B9" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1790,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>42.2</v>
+        <v>46.2</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1820,64 +1820,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>12202</v>
-      </c>
-      <c r="B10" s="2">
-        <v>121</v>
-      </c>
-      <c r="C10">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>46.2</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10">
-        <v>4</v>
-      </c>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0C6973-75BF-4511-B547-3ACAED9B85CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3189736-80D9-4A59-A592-78FCEDF4B3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
   <si>
     <t>Mode_index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD150FCE-FCFA-4355-A28A-43000EE0969C}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>12201</v>
+        <v>12103</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>12202</v>
+        <v>12104</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>11101</v>
+        <v>12201</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>11102</v>
+        <v>12202</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
@@ -1118,13 +1118,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <v>11103</v>
+        <v>12203</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -1141,13 +1141,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <v>11201</v>
+        <v>12204</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>12101</v>
+        <v>12205</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
@@ -1187,13 +1187,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <v>12102</v>
+        <v>11101</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>21</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
-        <v>12201</v>
+        <v>11102</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>21</v>
@@ -1233,24 +1233,254 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
-        <v>12202</v>
+        <v>11103</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>11201</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>12101</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>12102</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>12103</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>12104</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>12201</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>12202</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>12203</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>12204</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>12205</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1263,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9C196F-4F00-40D9-AF4A-152034752A4E}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1704,16 +1934,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>12201</v>
+        <v>12103</v>
       </c>
       <c r="B8" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1725,19 +1955,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-2.2000000000000002</v>
+        <v>-2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>42.2</v>
+        <v>-2</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M8">
         <v>10</v>
@@ -1755,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -1763,16 +1993,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>12202</v>
+        <v>12104</v>
       </c>
       <c r="B9" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1784,22 +2014,22 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>-2.2000000000000002</v>
+        <v>-2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>46.2</v>
+        <v>-2</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1814,15 +2044,306 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2">
+        <v>12201</v>
+      </c>
+      <c r="B10" s="2">
+        <v>122</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>42.2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>12202</v>
+      </c>
+      <c r="B11" s="2">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>46.2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>12203</v>
+      </c>
+      <c r="B12" s="2">
+        <v>122</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>26</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>12204</v>
+      </c>
+      <c r="B13" s="2">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>12205</v>
+      </c>
+      <c r="B14" s="2">
+        <v>122</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3189736-80D9-4A59-A592-78FCEDF4B3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDDE9A6-0F64-41F8-8E42-E2883A6D3470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
+    <workbookView xWindow="4000" yWindow="1420" windowWidth="21600" windowHeight="11180" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="2" r:id="rId1"/>
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2176,10 +2176,10 @@
         <v>122</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>1</v>

--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDDE9A6-0F64-41F8-8E42-E2883A6D3470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB592668-FD4D-4D42-A3AC-B75F0384057D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="1420" windowWidth="21600" windowHeight="11180" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="2" r:id="rId1"/>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9C196F-4F00-40D9-AF4A-152034752A4E}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12">
         <v>0</v>

--- a/Client/Assets/11. GameData/Map.xlsx
+++ b/Client/Assets/11. GameData/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB592668-FD4D-4D42-A3AC-B75F0384057D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8582144-9921-4E19-945E-29E5CFFA1469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{921AD0DD-2680-48BD-95A5-710096326966}"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="2" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="31">
   <si>
     <t>Mode_index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,10 @@
   </si>
   <si>
     <t>Statue_Team_Green_LocationX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,8 +394,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +420,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +456,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,13 +883,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD150FCE-FCFA-4355-A28A-43000EE0969C}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
@@ -863,7 +900,7 @@
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -886,32 +923,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" s="5" customFormat="1">
+      <c r="A2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
         <v>11101</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>11102</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -932,9 +969,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>11103</v>
+        <v>11102</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -955,9 +992,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>11201</v>
+        <v>11103</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -978,32 +1015,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
+        <v>11201</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
         <v>12101</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>12102</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1024,9 +1061,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>12103</v>
+        <v>12102</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1047,9 +1084,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>12104</v>
+        <v>12103</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1070,9 +1107,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>12201</v>
+        <v>12104</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1093,9 +1130,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>12202</v>
+        <v>12201</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1116,9 +1153,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>12203</v>
+        <v>12202</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1139,9 +1176,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>12204</v>
+        <v>12203</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1162,9 +1199,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>12205</v>
+        <v>12204</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1185,32 +1222,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
+        <v>12205</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
         <v>11101</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <v>11102</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1231,9 +1268,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>11103</v>
+        <v>11102</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1254,9 +1291,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>11201</v>
+        <v>11103</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1277,15 +1314,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>12101</v>
+        <v>11201</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>21</v>
@@ -1300,9 +1337,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>12102</v>
+        <v>12101</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1323,9 +1360,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>12103</v>
+        <v>12102</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1346,9 +1383,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>12104</v>
+        <v>12103</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1369,9 +1406,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>12201</v>
+        <v>12104</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1392,9 +1429,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>12202</v>
+        <v>12201</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1415,9 +1452,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>12203</v>
+        <v>12202</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1438,9 +1475,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>12204</v>
+        <v>12203</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1461,9 +1498,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>12205</v>
+        <v>12204</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1481,6 +1518,29 @@
         <v>24</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <v>12205</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1493,13 +1553,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9C196F-4F00-40D9-AF4A-152034752A4E}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.08203125" bestFit="1" customWidth="1"/>
@@ -1519,7 +1579,7 @@
     <col min="20" max="20" width="29.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1578,77 +1638,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+    <row r="2" spans="1:19" s="7" customFormat="1">
+      <c r="A2" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="7">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>-0.2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>6</v>
+      </c>
+      <c r="K2" s="7">
+        <v>28</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>6</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7">
+        <v>3</v>
+      </c>
+      <c r="S2" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2">
         <v>11101</v>
-      </c>
-      <c r="B2" s="2">
-        <v>111</v>
-      </c>
-      <c r="C2">
-        <v>38</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>11102</v>
       </c>
       <c r="B3" s="2">
         <v>111</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1669,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="K3">
-        <v>38.200000000000003</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1696,18 +1756,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>11103</v>
+        <v>11102</v>
       </c>
       <c r="B4" s="2">
         <v>111</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1725,16 +1785,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>36.200000000000003</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1755,18 +1815,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>11201</v>
+        <v>11103</v>
       </c>
       <c r="B5" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1775,57 +1835,57 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>30.2</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>-2.2000000000000002</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>46.2</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>12101</v>
+        <v>11201</v>
       </c>
       <c r="B6" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1834,57 +1894,57 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
+        <v>30.2</v>
+      </c>
+      <c r="K6">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>46.2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
         <v>4</v>
-      </c>
-      <c r="K6">
-        <v>-2</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>13</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
       </c>
       <c r="R6">
         <v>3</v>
       </c>
       <c r="S6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>12102</v>
+        <v>12101</v>
       </c>
       <c r="B7" s="2">
         <v>121</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1896,22 +1956,22 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-2.2000000000000002</v>
+        <v>-2</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>42.2</v>
+        <v>-2</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1932,18 +1992,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>12103</v>
+        <v>12102</v>
       </c>
       <c r="B8" s="2">
         <v>121</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1955,22 +2015,22 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>-2</v>
+        <v>42.2</v>
       </c>
       <c r="L8">
         <v>7</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1985,15 +2045,15 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>12104</v>
+        <v>12103</v>
       </c>
       <c r="B9" s="2">
         <v>121</v>
@@ -2050,18 +2110,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>12201</v>
+        <v>12104</v>
       </c>
       <c r="B10" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2073,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-2.2000000000000002</v>
+        <v>-2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>42.2</v>
+        <v>-2</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M10">
         <v>10</v>
@@ -2103,24 +2163,24 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>12202</v>
+        <v>12201</v>
       </c>
       <c r="B11" s="2">
         <v>122</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2138,16 +2198,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>46.2</v>
+        <v>42.2</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2168,18 +2228,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>12203</v>
+        <v>12202</v>
       </c>
       <c r="B12" s="2">
         <v>122</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2191,22 +2251,22 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>-2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>30</v>
+        <v>46.2</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2218,27 +2278,27 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>12204</v>
+        <v>12203</v>
       </c>
       <c r="B13" s="2">
         <v>122</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2250,22 +2310,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>-2.2000000000000002</v>
+        <v>-2</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2277,18 +2337,18 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>12205</v>
+        <v>12204</v>
       </c>
       <c r="B14" s="2">
         <v>122</v>
@@ -2342,6 +2402,65 @@
         <v>3</v>
       </c>
       <c r="S14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="2">
+        <v>12205</v>
+      </c>
+      <c r="B15" s="2">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>22</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
         <v>4</v>
       </c>
     </row>
